--- a/BOMs/LV_Powerboard_BOM.xlsx
+++ b/BOMs/LV_Powerboard_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\Desktop\UIUCClasses\ECE445\SeniorDesign\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EAA0626-DAC1-4EF7-8388-CEA9B2CE6810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6919975-A6BB-4995-B289-3072FABE8412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11835" xr2:uid="{27663CB6-9E58-46E5-9EBC-A4C0229D7894}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{27663CB6-9E58-46E5-9EBC-A4C0229D7894}"/>
   </bookViews>
   <sheets>
     <sheet name="LV_Powerboard_BOM" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
   <si>
     <t>Comment</t>
   </si>
@@ -294,13 +294,60 @@
   </si>
   <si>
     <t>CMP-139-000000-1</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/comchip-technology/CPDUR5V0HE-HF/5683916</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/INA219AID/2047415</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/5000/255326</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/infineon-technologies/IPZ40N04S5L4R8ATMA1/5960381</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/WSL2512R0500FEA/712568</t>
+  </si>
+  <si>
+    <t>https://www.monolithicpower.com/en/mpq4214-aec1.html</t>
+  </si>
+  <si>
+    <t>https://www.newark.com/samtec/tsw-110-08-f-d-ra/header-2-54mm-though-hole-right/dp/80P1078</t>
+  </si>
+  <si>
+    <t>https://www.coilcraft.com/en-us/products/power/shielded-inductors/molded-inductor/xal/xal7070/xal7070-472/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-3LWFR005V/6004265</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,17 +394,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -690,17 +746,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261824D3-D0E7-4D33-B2B7-9CA326DDF207}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="6" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="82.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="7" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -708,517 +770,748 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F2" s="8">
+        <f>E2*C2</f>
+        <v>2.7</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
+        <f>E12*C3</f>
+        <v>5.4</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
+        <f t="shared" ref="F3:F26" si="0">E4*C4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="F12" s="8">
+        <f>C12*E12</f>
+        <v>2.7</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>3.76</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
+        <v>5.32</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="7">
+        <v>5.67</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>5.67</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11">
+        <f>SUM(F2:F26)</f>
+        <v>32.440000000000005</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
